--- a/src/test/java/BT_Event/TestData/event.xlsx
+++ b/src/test/java/BT_Event/TestData/event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Auto test/Selemium/Module3/src/test/java/BT_Event/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18331258-94BF-5446-B0B3-203862931FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F75C1D-DF13-CB45-B5ED-79701E697E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{75612942-B80E-8346-8BD3-7D987B94D84F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>9-3-2024</t>
+  </si>
+  <si>
+    <t>event4</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3A58FD-DB87-9B4D-A3D2-FC5C9C83D352}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,6 +588,29 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
